--- a/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000 – Гидроабразив резина.xlsx
+++ b/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000 – Гидроабразив резина.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,30 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Обозначение</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Примечание</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Материалы</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Общее количество</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Количество</t>
         </is>
@@ -458,54 +468,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>НФ-00002224_0.2м,Р,Т</t>
+          <t>ИНРТ.100.01.01.003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Круг 25 мм, 30ХГСА</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
+          <t>Перемычка</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>НФ-00002225_1м,Р</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Вал прецизионный 30 мм</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>НФ-00002225_1.2м,Р,Т</t>
+          <t>ИНРТ.100.01.02.001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Вал прецизионный 30 мм</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>Палец</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>НФ-00002224_0.2м,Р,Т</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Круг 25 мм, 30ХГСА</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>НФ-00002225_1м,Р</t>
+          <t>ИНРТ.100.02.00.002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Шток</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>НФ-00002225_1.2м,Р,Т</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Вал прецизионный 30 мм</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>2</v>
       </c>
     </row>
